--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2444.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2444.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.039489504946335</v>
+        <v>2.065483331680298</v>
       </c>
       <c r="B1">
-        <v>2.189114918598821</v>
+        <v>2.257797241210938</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>2.379379510879517</v>
       </c>
       <c r="D1">
-        <v>2.621331271647895</v>
+        <v>3.188571929931641</v>
       </c>
       <c r="E1">
-        <v>0.9816255548403694</v>
+        <v>2.603131771087646</v>
       </c>
     </row>
   </sheetData>
